--- a/data/trans_orig/P70C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>56805</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40479</v>
+        <v>40100</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72675</v>
+        <v>71908</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5419202771431201</v>
+        <v>0.54192027714312</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3861770325711167</v>
+        <v>0.3825562035885607</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6933229199087895</v>
+        <v>0.686003564968363</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -762,19 +762,19 @@
         <v>59401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47117</v>
+        <v>46632</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70758</v>
+        <v>70464</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6474666302166135</v>
+        <v>0.6474666302166137</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5135739423059535</v>
+        <v>0.5082939492618197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7712607309137498</v>
+        <v>0.7680613229207356</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -783,19 +783,19 @@
         <v>116205</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94994</v>
+        <v>95553</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>134577</v>
+        <v>135705</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5911823070595638</v>
+        <v>0.5911823070595639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4832747661299931</v>
+        <v>0.4861167529154748</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6846497456009413</v>
+        <v>0.6903878226317481</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>28465</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15878</v>
+        <v>16526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44667</v>
+        <v>45406</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2715537677220944</v>
+        <v>0.2715537677220943</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1514796166605809</v>
+        <v>0.1576546996426418</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4261259612112612</v>
+        <v>0.433173450267955</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -833,19 +833,19 @@
         <v>23507</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14191</v>
+        <v>13861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34872</v>
+        <v>36560</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2562220860355293</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1546849048728551</v>
+        <v>0.151089756222717</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3801091380109022</v>
+        <v>0.3984997500882286</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -854,19 +854,19 @@
         <v>51971</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36686</v>
+        <v>35407</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>71033</v>
+        <v>70745</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2643979566502798</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1866366538122394</v>
+        <v>0.180131390837722</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3613709233941235</v>
+        <v>0.3599064414169988</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>12101</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26827</v>
+        <v>27278</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.115445793639456</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03206666679854261</v>
+        <v>0.0320747819616448</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2559287844918871</v>
+        <v>0.2602328370582199</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -904,19 +904,19 @@
         <v>3912</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10830</v>
+        <v>10744</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04264309532226529</v>
+        <v>0.0426430953222653</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01266570949655293</v>
+        <v>0.01273757264972929</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1180487581855011</v>
+        <v>0.1171045349874556</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -925,19 +925,19 @@
         <v>16013</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6681</v>
+        <v>6168</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34236</v>
+        <v>33213</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08146632776438209</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03398723882651588</v>
+        <v>0.03138017327455944</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1741704614175051</v>
+        <v>0.1689663511439083</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19648</v>
+        <v>18590</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04033813532218894</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1874460490530183</v>
+        <v>0.1773514114961809</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9755</v>
+        <v>9240</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02008890410873142</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1063258297326208</v>
+        <v>0.1007149051889005</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21253</v>
+        <v>24978</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03088713862950603</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1081236109955567</v>
+        <v>0.1270720698545066</v>
       </c>
     </row>
     <row r="8">
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10384</v>
+        <v>12156</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0307420261731406</v>
+        <v>0.03074202617314059</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09906382492455722</v>
+        <v>0.1159696918588622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15258</v>
+        <v>17440</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03357928431686039</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1663121425447152</v>
+        <v>0.1901000405120495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1067,19 +1067,19 @@
         <v>6303</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1374</v>
+        <v>1411</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17854</v>
+        <v>18743</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03206626989626833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006991352924690414</v>
+        <v>0.007178439844281894</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0908303701068245</v>
+        <v>0.09535534188416882</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1218,19 @@
         <v>221849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>196387</v>
+        <v>195756</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>250642</v>
+        <v>248833</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.560336966735559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4960264881875384</v>
+        <v>0.4944328478941432</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6330614448961456</v>
+        <v>0.6284933406097303</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>164</v>
@@ -1239,19 +1239,19 @@
         <v>183394</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>164473</v>
+        <v>165801</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>200820</v>
+        <v>202793</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5745340304747868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5152592305854311</v>
+        <v>0.5194197916266197</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6291243963428971</v>
+        <v>0.6353066753145399</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>300</v>
@@ -1260,19 +1260,19 @@
         <v>405243</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>372067</v>
+        <v>373969</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>438172</v>
+        <v>433757</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5666740015132607</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5202819125031143</v>
+        <v>0.5229425250601125</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6127213552932235</v>
+        <v>0.6065468992731742</v>
       </c>
     </row>
     <row r="12">
@@ -1289,19 +1289,19 @@
         <v>83481</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65145</v>
+        <v>64912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>107664</v>
+        <v>106494</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.210853192659072</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1645400137753245</v>
+        <v>0.163952784615331</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2719340123348898</v>
+        <v>0.2689796929675882</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -1310,19 +1310,19 @@
         <v>86348</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>70312</v>
+        <v>69869</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>101822</v>
+        <v>101130</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2705106731604849</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2202719374457896</v>
+        <v>0.2188829315766899</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3189857102106711</v>
+        <v>0.3168185691302117</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>145</v>
@@ -1331,19 +1331,19 @@
         <v>169829</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>146645</v>
+        <v>145046</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>200014</v>
+        <v>196373</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2374820460354873</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2050620355290811</v>
+        <v>0.2028261210010849</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2796908029282733</v>
+        <v>0.2746001902625198</v>
       </c>
     </row>
     <row r="13">
@@ -1360,19 +1360,19 @@
         <v>36814</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23889</v>
+        <v>24151</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53906</v>
+        <v>53129</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09298468376128399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06033780776703705</v>
+        <v>0.06099992439574274</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1361539303766331</v>
+        <v>0.1341917131161243</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1381,19 +1381,19 @@
         <v>22568</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14401</v>
+        <v>14437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33401</v>
+        <v>33800</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07070153144217163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04511427329214217</v>
+        <v>0.04522756559388739</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1046387653163465</v>
+        <v>0.1058875159281658</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -1402,19 +1402,19 @@
         <v>59383</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45848</v>
+        <v>45312</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80202</v>
+        <v>81139</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08303832345771874</v>
+        <v>0.08303832345771872</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06411214207227497</v>
+        <v>0.06336299000142168</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1121510114455336</v>
+        <v>0.113460638662026</v>
       </c>
     </row>
     <row r="14">
@@ -1431,19 +1431,19 @@
         <v>28366</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16404</v>
+        <v>17000</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45622</v>
+        <v>46484</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07164479746540728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04143237771657851</v>
+        <v>0.04293685213775796</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1152308598239932</v>
+        <v>0.1174076258644509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1452,19 +1452,19 @@
         <v>15360</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9041</v>
+        <v>9258</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24362</v>
+        <v>23961</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04812035193999427</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.028323238979383</v>
+        <v>0.02900188471808112</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07631952113558951</v>
+        <v>0.07506343138538182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -1473,19 +1473,19 @@
         <v>43726</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30420</v>
+        <v>29897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61262</v>
+        <v>62295</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06114437060539504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04253850128682746</v>
+        <v>0.04180633665113182</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08566612394550666</v>
+        <v>0.08711016546425504</v>
       </c>
     </row>
     <row r="15">
@@ -1502,19 +1502,19 @@
         <v>18584</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9657</v>
+        <v>9817</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>35838</v>
+        <v>33804</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04693986209932621</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02439128115364038</v>
+        <v>0.02479477638629049</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09051834607661322</v>
+        <v>0.0853806187154173</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -1523,19 +1523,19 @@
         <v>9357</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4629</v>
+        <v>4379</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17892</v>
+        <v>17390</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02931378678005915</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01450126154343855</v>
+        <v>0.01371904478167896</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05605197861718465</v>
+        <v>0.05447838407185351</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>20</v>
@@ -1544,19 +1544,19 @@
         <v>27942</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>17010</v>
+        <v>16573</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>45140</v>
+        <v>44413</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03907224564396318</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02378638328348638</v>
+        <v>0.02317471006524656</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06312237716815589</v>
+        <v>0.06210555343810691</v>
       </c>
     </row>
     <row r="16">
@@ -1573,19 +1573,19 @@
         <v>6826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1755</v>
+        <v>1779</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16734</v>
+        <v>16965</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01724049727935159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004432543712629328</v>
+        <v>0.004492990302490815</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04226632502048486</v>
+        <v>0.04285001149454086</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7579</v>
+        <v>7926</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006819626202503352</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02374312221934225</v>
+        <v>0.02482892546536475</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1615,19 +1615,19 @@
         <v>9003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3703</v>
+        <v>3265</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20343</v>
+        <v>19381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01258901274417503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005178435378750562</v>
+        <v>0.004566125656921841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02844721746411522</v>
+        <v>0.02710170237425503</v>
       </c>
     </row>
     <row r="17">
@@ -1719,19 +1719,19 @@
         <v>304143</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>279201</v>
+        <v>280667</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>326052</v>
+        <v>328997</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5650628037637466</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5187238927811209</v>
+        <v>0.521447334152313</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6057674801752142</v>
+        <v>0.6112382292696454</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>270</v>
@@ -1740,19 +1740,19 @@
         <v>199224</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>182510</v>
+        <v>182145</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>215540</v>
+        <v>215436</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5024758581826745</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4603217068403026</v>
+        <v>0.4593994698657714</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5436280360605865</v>
+        <v>0.5433667414288977</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>531</v>
@@ -1761,19 +1761,19 @@
         <v>503366</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>474181</v>
+        <v>472425</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>534936</v>
+        <v>532810</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5385153439225729</v>
+        <v>0.5385153439225731</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5072923974997664</v>
+        <v>0.5054131269414864</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5722896859068402</v>
+        <v>0.5700145378786329</v>
       </c>
     </row>
     <row r="19">
@@ -1790,19 +1790,19 @@
         <v>114001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94880</v>
+        <v>95507</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>134312</v>
+        <v>133970</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2118004700190987</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1762757543784614</v>
+        <v>0.1774420792218291</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2495363003799868</v>
+        <v>0.248901086153716</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>157</v>
@@ -1811,19 +1811,19 @@
         <v>105227</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>91698</v>
+        <v>90991</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120278</v>
+        <v>120542</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2654000495471679</v>
+        <v>0.265400049547168</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.23127826498087</v>
+        <v>0.22949495969891</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.303360678250614</v>
+        <v>0.3040278498225628</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>265</v>
@@ -1832,19 +1832,19 @@
         <v>219228</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>197736</v>
+        <v>196797</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>245145</v>
+        <v>246518</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2345357652442349</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2115433138061435</v>
+        <v>0.2105387800946587</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2622623848785287</v>
+        <v>0.2637319604594615</v>
       </c>
     </row>
     <row r="20">
@@ -1861,19 +1861,19 @@
         <v>56636</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42851</v>
+        <v>42911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72871</v>
+        <v>72676</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1052229749046224</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07961309611538821</v>
+        <v>0.07972367352080992</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1353868097114687</v>
+        <v>0.1350234026497187</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>40</v>
@@ -1882,19 +1882,19 @@
         <v>30843</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22283</v>
+        <v>22742</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42014</v>
+        <v>40737</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.07779160782249879</v>
+        <v>0.07779160782249878</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0562003534247749</v>
+        <v>0.05735971493792334</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1059658054328508</v>
+        <v>0.1027451798903968</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>91</v>
@@ -1903,19 +1903,19 @@
         <v>87479</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>71407</v>
+        <v>71566</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>106620</v>
+        <v>107257</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09358743159379172</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07639332566892897</v>
+        <v>0.07656373199653327</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1140652104354649</v>
+        <v>0.1147462341558357</v>
       </c>
     </row>
     <row r="21">
@@ -1932,19 +1932,19 @@
         <v>41816</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29811</v>
+        <v>28608</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>57403</v>
+        <v>56921</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07768858305043747</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05538601347495437</v>
+        <v>0.05315120423520937</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.106648071453845</v>
+        <v>0.1057533060588641</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -1953,19 +1953,19 @@
         <v>31927</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23342</v>
+        <v>24025</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>41212</v>
+        <v>43837</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08052453284672312</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05887208800917949</v>
+        <v>0.06059590650988965</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1039428657274031</v>
+        <v>0.1105638295405111</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>77</v>
@@ -1974,19 +1974,19 @@
         <v>73742</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>56658</v>
+        <v>56988</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>90911</v>
+        <v>92516</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07889150584255478</v>
+        <v>0.07889150584255479</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06061434230778567</v>
+        <v>0.06096775517049717</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09725946110725071</v>
+        <v>0.09897670214706193</v>
       </c>
     </row>
     <row r="22">
@@ -2003,19 +2003,19 @@
         <v>12936</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6594</v>
+        <v>6740</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24470</v>
+        <v>24729</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02403415929893942</v>
+        <v>0.02403415929893943</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0122513903431213</v>
+        <v>0.01252195243820359</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04546337615591231</v>
+        <v>0.04594342674941806</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2024,19 +2024,19 @@
         <v>21983</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15252</v>
+        <v>15245</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31771</v>
+        <v>31689</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0554436254304046</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03846932247032351</v>
+        <v>0.03844979416886105</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08013293407202089</v>
+        <v>0.07992545373130298</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2045,19 +2045,19 @@
         <v>34919</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24806</v>
+        <v>25186</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47263</v>
+        <v>47392</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03735709003179737</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02653828387441462</v>
+        <v>0.02694473181459639</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05056361510076369</v>
+        <v>0.05070116582988959</v>
       </c>
     </row>
     <row r="23">
@@ -2074,19 +2074,19 @@
         <v>8715</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18429</v>
+        <v>17233</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01619100896315544</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006897401015553573</v>
+        <v>0.006894482662251474</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03423862849945059</v>
+        <v>0.03201643936432164</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2095,19 +2095,19 @@
         <v>7281</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3403</v>
+        <v>3581</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13731</v>
+        <v>13268</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01836432617053099</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.008583724531166931</v>
+        <v>0.009031229637083553</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03463177499228121</v>
+        <v>0.0334640321291737</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -2116,19 +2116,19 @@
         <v>15996</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8673</v>
+        <v>9473</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>25379</v>
+        <v>27576</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0171128633650482</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009278855924053791</v>
+        <v>0.01013469659580754</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02715150896275858</v>
+        <v>0.02950201100896482</v>
       </c>
     </row>
     <row r="24">
@@ -2220,19 +2220,19 @@
         <v>322157</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>298871</v>
+        <v>296623</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>344549</v>
+        <v>343958</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5891397632329221</v>
+        <v>0.5891397632329219</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5465551206811724</v>
+        <v>0.5424454859382651</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.630088782006384</v>
+        <v>0.6290077315632332</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>387</v>
@@ -2241,19 +2241,19 @@
         <v>252954</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>235762</v>
+        <v>235103</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>269685</v>
+        <v>268339</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5551014158838746</v>
+        <v>0.5551014158838747</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.517373734943662</v>
+        <v>0.515928300330676</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5918170349101455</v>
+        <v>0.5888623936745132</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>685</v>
@@ -2262,19 +2262,19 @@
         <v>575111</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>546833</v>
+        <v>545552</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>603339</v>
+        <v>601636</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5736677632535878</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5454609757672678</v>
+        <v>0.5441833183220479</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6018250908967803</v>
+        <v>0.6001262743987444</v>
       </c>
     </row>
     <row r="26">
@@ -2291,19 +2291,19 @@
         <v>131757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>113858</v>
+        <v>111978</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>154820</v>
+        <v>151703</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2409486659952429</v>
+        <v>0.2409486659952428</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2082163025083929</v>
+        <v>0.2047774362159961</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2831248707131431</v>
+        <v>0.2774237176305915</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>178</v>
@@ -2312,19 +2312,19 @@
         <v>107386</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>93069</v>
+        <v>93994</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>123382</v>
+        <v>122426</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2356558914700455</v>
+        <v>0.2356558914700456</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2042379710001084</v>
+        <v>0.20626754862806</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2707583780341595</v>
+        <v>0.2686616218155878</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>314</v>
@@ -2333,19 +2333,19 @@
         <v>239143</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>214428</v>
+        <v>215632</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>262477</v>
+        <v>267881</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2385428556747613</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2138901260761091</v>
+        <v>0.2150909770326952</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2618177977188872</v>
+        <v>0.2672084211488553</v>
       </c>
     </row>
     <row r="27">
@@ -2362,19 +2362,19 @@
         <v>26888</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>18215</v>
+        <v>18223</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>40086</v>
+        <v>39339</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04917154029255512</v>
+        <v>0.04917154029255511</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0333107500403852</v>
+        <v>0.03332518565508377</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07330647866010383</v>
+        <v>0.07193973338180286</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>62</v>
@@ -2383,19 +2383,19 @@
         <v>40120</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>31532</v>
+        <v>30859</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>51266</v>
+        <v>50576</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08804191367465632</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06919649932018486</v>
+        <v>0.06771893329425961</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1125015702034019</v>
+        <v>0.1109886448010745</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>87</v>
@@ -2404,19 +2404,19 @@
         <v>67008</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>53758</v>
+        <v>53796</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>80915</v>
+        <v>82231</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06683991913590735</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05362298201330228</v>
+        <v>0.05366075869084364</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08071226727399337</v>
+        <v>0.08202492608651622</v>
       </c>
     </row>
     <row r="28">
@@ -2433,19 +2433,19 @@
         <v>30920</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21099</v>
+        <v>21518</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42349</v>
+        <v>43189</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05654413961743817</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03858375960260979</v>
+        <v>0.03935023325484931</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07744600209573031</v>
+        <v>0.07898168788381334</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>43</v>
@@ -2454,19 +2454,19 @@
         <v>27897</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20825</v>
+        <v>20570</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>37831</v>
+        <v>37204</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06121844230064055</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04569936296734234</v>
+        <v>0.04514063824273051</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08301977884512461</v>
+        <v>0.08164245201871224</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>74</v>
@@ -2475,19 +2475,19 @@
         <v>58816</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>45330</v>
+        <v>47336</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>73594</v>
+        <v>75948</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05866882593890651</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04521613065957873</v>
+        <v>0.04721685603605941</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07340882057810259</v>
+        <v>0.07575724809284413</v>
       </c>
     </row>
     <row r="29">
@@ -2504,19 +2504,19 @@
         <v>20605</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13263</v>
+        <v>13073</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33830</v>
+        <v>31814</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03768072031873255</v>
+        <v>0.03768072031873254</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02425396200003969</v>
+        <v>0.02390656658257582</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06186646014491784</v>
+        <v>0.05817992199657818</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>29</v>
@@ -2525,19 +2525,19 @@
         <v>19402</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13518</v>
+        <v>13288</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27535</v>
+        <v>27140</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04257750090846546</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0296641053668122</v>
+        <v>0.02915927175164843</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06042576085710499</v>
+        <v>0.05955879785290297</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -2546,19 +2546,19 @@
         <v>40007</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30047</v>
+        <v>28475</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54909</v>
+        <v>52471</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.03990653311763955</v>
+        <v>0.03990653311763954</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02997141254461478</v>
+        <v>0.02840311367876911</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05477089071985057</v>
+        <v>0.05233927828935766</v>
       </c>
     </row>
     <row r="30">
@@ -2575,19 +2575,19 @@
         <v>14499</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7936</v>
+        <v>8427</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23097</v>
+        <v>24115</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.02651517054310941</v>
+        <v>0.0265151705431094</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01451371056383558</v>
+        <v>0.01541039906119592</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04223811184539955</v>
+        <v>0.04410001913630939</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -2596,19 +2596,19 @@
         <v>7931</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4071</v>
+        <v>4548</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13435</v>
+        <v>13021</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01740483576231746</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.008934670908338271</v>
+        <v>0.009979767486200573</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02948198924028126</v>
+        <v>0.02857472471818998</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>27</v>
@@ -2617,19 +2617,19 @@
         <v>22430</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>14454</v>
+        <v>14893</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>32057</v>
+        <v>31949</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02237410287919752</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01441761008964458</v>
+        <v>0.0148556974768746</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03197701857091721</v>
+        <v>0.03186920340019214</v>
       </c>
     </row>
     <row r="31">
@@ -2721,19 +2721,19 @@
         <v>178271</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>160845</v>
+        <v>159413</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>197848</v>
+        <v>196078</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5411930977550762</v>
+        <v>0.5411930977550761</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4882911851568176</v>
+        <v>0.4839428252047266</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6006250645234881</v>
+        <v>0.5952511141947687</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>199</v>
@@ -2742,19 +2742,19 @@
         <v>123333</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>111363</v>
+        <v>111872</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>134091</v>
+        <v>135298</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5296844323325002</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4782766536319913</v>
+        <v>0.4804618929106754</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5758853582668059</v>
+        <v>0.5810686316770919</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>385</v>
@@ -2763,19 +2763,19 @@
         <v>301604</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>280150</v>
+        <v>279597</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>322689</v>
+        <v>321911</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5364270214857129</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4982696553760892</v>
+        <v>0.4972853263697121</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5739288171235375</v>
+        <v>0.5725440274736355</v>
       </c>
     </row>
     <row r="33">
@@ -2792,19 +2792,19 @@
         <v>84581</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>70556</v>
+        <v>70713</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>99899</v>
+        <v>100291</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2567699244044581</v>
+        <v>0.256769924404458</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2141939536463911</v>
+        <v>0.2146698703141102</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3032718501088439</v>
+        <v>0.3044633824366155</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>112</v>
@@ -2813,19 +2813,19 @@
         <v>60933</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>50939</v>
+        <v>51378</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>70855</v>
+        <v>71478</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.2616924822280672</v>
+        <v>0.2616924822280671</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2187683976885671</v>
+        <v>0.2206539877335699</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3043058032728641</v>
+        <v>0.3069787371550587</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>209</v>
@@ -2834,19 +2834,19 @@
         <v>145514</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>126226</v>
+        <v>127227</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>162005</v>
+        <v>163643</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2588085001355457</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2245029934475161</v>
+        <v>0.2262841422847222</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2881385201946407</v>
+        <v>0.2910517025378612</v>
       </c>
     </row>
     <row r="34">
@@ -2863,19 +2863,19 @@
         <v>25818</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>17374</v>
+        <v>18183</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35805</v>
+        <v>36980</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.07837669190438065</v>
+        <v>0.07837669190438062</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05274275498803485</v>
+        <v>0.05519932825365413</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1086957469927674</v>
+        <v>0.1122626662916414</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>31</v>
@@ -2884,19 +2884,19 @@
         <v>20178</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14408</v>
+        <v>14180</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>28135</v>
+        <v>28072</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08665739924610859</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06187992151357609</v>
+        <v>0.06090089353746429</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1208324133966977</v>
+        <v>0.1205637890828239</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>60</v>
@@ -2905,19 +2905,19 @@
         <v>45995</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>36279</v>
+        <v>35850</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>60128</v>
+        <v>59510</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08180597595303603</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06452481659689044</v>
+        <v>0.06376219378152054</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1069424165173943</v>
+        <v>0.1058434660753578</v>
       </c>
     </row>
     <row r="35">
@@ -2934,19 +2934,19 @@
         <v>22778</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14824</v>
+        <v>14818</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>33802</v>
+        <v>32724</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.0691487023798361</v>
+        <v>0.06914870237983609</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04500203539848393</v>
+        <v>0.04498571790863732</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1026159992240769</v>
+        <v>0.09934246700055169</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>29</v>
@@ -2955,19 +2955,19 @@
         <v>17922</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12385</v>
+        <v>11902</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>25296</v>
+        <v>24986</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.0769683454369888</v>
+        <v>0.07696834543698879</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05319046117135478</v>
+        <v>0.05111700771598035</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1086416249638176</v>
+        <v>0.1073075925006501</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>53</v>
@@ -2976,19 +2976,19 @@
         <v>40699</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30668</v>
+        <v>30970</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>53470</v>
+        <v>53279</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0723870461704617</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05454498133856895</v>
+        <v>0.05508329739577295</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09510151473878962</v>
+        <v>0.09476151083551737</v>
       </c>
     </row>
     <row r="36">
@@ -3005,19 +3005,19 @@
         <v>12183</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6834</v>
+        <v>7033</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19478</v>
+        <v>19266</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.036985014213721</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02074545973199133</v>
+        <v>0.02135132800208673</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05913247364868394</v>
+        <v>0.05848600840911196</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -3026,19 +3026,19 @@
         <v>6107</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3019</v>
+        <v>3077</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10869</v>
+        <v>10712</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02622699795293079</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01296759742132692</v>
+        <v>0.01321373690353171</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04667938322285683</v>
+        <v>0.04600416171680811</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>25</v>
@@ -3047,19 +3047,19 @@
         <v>18290</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11674</v>
+        <v>11161</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>26005</v>
+        <v>25687</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03252980380284265</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02076362429924666</v>
+        <v>0.01985106282984683</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04625201335266814</v>
+        <v>0.04568613033974421</v>
       </c>
     </row>
     <row r="37">
@@ -3076,19 +3076,19 @@
         <v>5773</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2383</v>
+        <v>2389</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13165</v>
+        <v>11842</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.01752656934252801</v>
+        <v>0.017526569342528</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007235155669505308</v>
+        <v>0.007253403056478605</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03996559460414308</v>
+        <v>0.03594848785524989</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -3097,19 +3097,19 @@
         <v>4371</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1906</v>
+        <v>1875</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8401</v>
+        <v>8352</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01877034280340453</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.008184523876178816</v>
+        <v>0.0080531476411698</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03608024339517085</v>
+        <v>0.03586844435245435</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>13</v>
@@ -3118,19 +3118,19 @@
         <v>10144</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5594</v>
+        <v>5551</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>17120</v>
+        <v>18032</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01804165245240092</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009949481746979993</v>
+        <v>0.009873454993466537</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03044948022346707</v>
+        <v>0.03207183669459137</v>
       </c>
     </row>
     <row r="38">
@@ -3222,19 +3222,19 @@
         <v>1083224</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1031941</v>
+        <v>1035321</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1130721</v>
+        <v>1131781</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.565588209427545</v>
+        <v>0.5655882094275448</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5388113465177544</v>
+        <v>0.5405763979395772</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5903878846393878</v>
+        <v>0.5909415681018216</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1055</v>
@@ -3243,19 +3243,19 @@
         <v>818305</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>785290</v>
+        <v>783090</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>851248</v>
+        <v>853230</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.5470086483121269</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5249390494954799</v>
+        <v>0.5234686128105104</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.569029540623523</v>
+        <v>0.5703547960692831</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1962</v>
@@ -3264,19 +3264,19 @@
         <v>1901529</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1841968</v>
+        <v>1838726</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1958644</v>
+        <v>1956380</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5574401941665393</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5399795928742995</v>
+        <v>0.5390290918891416</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5741836634032738</v>
+        <v>0.5735197035347304</v>
       </c>
     </row>
     <row r="40">
@@ -3293,19 +3293,19 @@
         <v>442284</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>404211</v>
+        <v>401305</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>484464</v>
+        <v>484619</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2309316945108644</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2110521710581736</v>
+        <v>0.2095350931424396</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2529550091350483</v>
+        <v>0.2530360053385686</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>551</v>
@@ -3314,19 +3314,19 @@
         <v>383401</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>351827</v>
+        <v>355659</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>411907</v>
+        <v>414974</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2562901620242615</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2351842230256259</v>
+        <v>0.237745424402198</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2753457041242851</v>
+        <v>0.2773953873005728</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>963</v>
@@ -3335,19 +3335,19 @@
         <v>825685</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>774073</v>
+        <v>777767</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>873735</v>
+        <v>878098</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2420525804678214</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2269222867103202</v>
+        <v>0.2280051830073375</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2561386994124155</v>
+        <v>0.2574174908345568</v>
       </c>
     </row>
     <row r="41">
@@ -3364,19 +3364,19 @@
         <v>158257</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>133264</v>
+        <v>131809</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>188484</v>
+        <v>187817</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08263155321068805</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06958172318189862</v>
+        <v>0.06882185017960474</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.09841375209007956</v>
+        <v>0.09806573532806895</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>157</v>
@@ -3385,19 +3385,19 @@
         <v>117621</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>100016</v>
+        <v>102112</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>135473</v>
+        <v>138935</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.07862550405810131</v>
+        <v>0.07862550405810133</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06685713236704413</v>
+        <v>0.06825833698102833</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09055930606746018</v>
+        <v>0.09287299514808985</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>291</v>
@@ -3406,19 +3406,19 @@
         <v>275878</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>243757</v>
+        <v>245712</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>311805</v>
+        <v>312140</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08087471140862156</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07145818433778978</v>
+        <v>0.07203149035342676</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09140690292228223</v>
+        <v>0.09150503931816158</v>
       </c>
     </row>
     <row r="42">
@@ -3435,19 +3435,19 @@
         <v>128107</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>105144</v>
+        <v>106226</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>158040</v>
+        <v>156806</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.06688909354565439</v>
+        <v>0.06688909354565438</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05489939242157472</v>
+        <v>0.05546430177212498</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08251805063016944</v>
+        <v>0.08187361127091394</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>131</v>
@@ -3456,19 +3456,19 @@
         <v>94948</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>79624</v>
+        <v>80375</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>111118</v>
+        <v>112791</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.06346948540632873</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05322576121462596</v>
+        <v>0.05372775830989177</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07427856508758678</v>
+        <v>0.07539690935128113</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>239</v>
@@ -3477,19 +3477,19 @@
         <v>223055</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>193978</v>
+        <v>193424</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>257492</v>
+        <v>254735</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06538943383180018</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05686533850815879</v>
+        <v>0.0567029193251651</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07548482990629103</v>
+        <v>0.07467654805212896</v>
       </c>
     </row>
     <row r="43">
@@ -3506,19 +3506,19 @@
         <v>67531</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>51432</v>
+        <v>51108</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>91263</v>
+        <v>89282</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.03526020373268932</v>
+        <v>0.03526020373268931</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0268541859668175</v>
+        <v>0.02668548279567757</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04765147326681038</v>
+        <v>0.04661702028769171</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>77</v>
@@ -3527,19 +3527,19 @@
         <v>59929</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>47331</v>
+        <v>47613</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>76484</v>
+        <v>76236</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04006055864250933</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03163885218513731</v>
+        <v>0.03182764117094248</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05112692859245915</v>
+        <v>0.05096132738713476</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>134</v>
@@ -3548,19 +3548,19 @@
         <v>127460</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>107335</v>
+        <v>105449</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>158118</v>
+        <v>151922</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03736538613288062</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03146558860840101</v>
+        <v>0.03091274113454428</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04635295956017618</v>
+        <v>0.04453660159640002</v>
       </c>
     </row>
     <row r="44">
@@ -3577,19 +3577,19 @@
         <v>35813</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>25341</v>
+        <v>24329</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>52039</v>
+        <v>49572</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01869924557255889</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01323137866673619</v>
+        <v>0.01270274233167808</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02717126268112645</v>
+        <v>0.02588328412756818</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>30</v>
@@ -3598,19 +3598,19 @@
         <v>21760</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>14935</v>
+        <v>14887</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>31040</v>
+        <v>30609</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.01454564155667216</v>
+        <v>0.01454564155667217</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.009983738425694666</v>
+        <v>0.009951132019085289</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02074944672351278</v>
+        <v>0.02046084718412717</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>62</v>
@@ -3619,19 +3619,19 @@
         <v>57573</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>43835</v>
+        <v>44883</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>73462</v>
+        <v>73033</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01687769399233697</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01285048844979436</v>
+        <v>0.01315763800288947</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0215355854188485</v>
+        <v>0.02140980299238061</v>
       </c>
     </row>
     <row r="45">
